--- a/Excel Files/Ebola_Guinea_2014.xlsx
+++ b/Excel Files/Ebola_Guinea_2014.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2483,11 +2483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1524266208"/>
-        <c:axId val="1524260224"/>
+        <c:axId val="532344992"/>
+        <c:axId val="532354784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1524266208"/>
+        <c:axId val="532344992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2544,12 +2544,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1524260224"/>
+        <c:crossAx val="532354784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1524260224"/>
+        <c:axId val="532354784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,7 +2606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1524266208"/>
+        <c:crossAx val="532344992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4090,13 +4090,13 @@
                   <c:v>853</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>865</c:v>
+                  <c:v>866</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>891</c:v>
+                  <c:v>892</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>905</c:v>
@@ -4105,7 +4105,7 @@
                   <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>931</c:v>
+                  <c:v>932</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>945</c:v>
@@ -4132,7 +4132,7 @@
                   <c:v>1044</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1058</c:v>
+                  <c:v>1059</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1073</c:v>
@@ -4147,7 +4147,7 @@
                   <c:v>1118</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1133</c:v>
+                  <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1149</c:v>
@@ -4186,7 +4186,7 @@
                   <c:v>1325</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1342</c:v>
+                  <c:v>1341</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1358</c:v>
@@ -4210,7 +4210,7 @@
                   <c:v>1460</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1478</c:v>
+                  <c:v>1477</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1495</c:v>
@@ -4243,7 +4243,7 @@
                   <c:v>1654</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1671</c:v>
+                  <c:v>1672</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1689</c:v>
@@ -4258,13 +4258,13 @@
                   <c:v>1743</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1761</c:v>
+                  <c:v>1762</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1779</c:v>
+                  <c:v>1780</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1797</c:v>
+                  <c:v>1798</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1816</c:v>
@@ -4285,13 +4285,13 @@
                   <c:v>1906</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1924</c:v>
+                  <c:v>1925</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1942</c:v>
+                  <c:v>1943</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1960</c:v>
+                  <c:v>1961</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1979</c:v>
@@ -4318,7 +4318,7 @@
                   <c:v>2105</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2122</c:v>
+                  <c:v>2123</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>2140</c:v>
@@ -4336,7 +4336,7 @@
                   <c:v>2211</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2228</c:v>
+                  <c:v>2229</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>2246</c:v>
@@ -4375,7 +4375,7 @@
                   <c:v>2433</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2449</c:v>
+                  <c:v>2450</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>2466</c:v>
@@ -4387,10 +4387,10 @@
                   <c:v>2498</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2514</c:v>
+                  <c:v>2515</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2530</c:v>
+                  <c:v>2531</c:v>
                 </c:pt>
                 <c:pt idx="118">
                   <c:v>2546</c:v>
@@ -4399,13 +4399,13 @@
                   <c:v>2562</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2577</c:v>
+                  <c:v>2578</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>2593</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2608</c:v>
+                  <c:v>2609</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>2624</c:v>
@@ -4423,13 +4423,13 @@
                   <c:v>2684</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2698</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>2713</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2727</c:v>
+                  <c:v>2728</c:v>
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>2742</c:v>
@@ -4438,7 +4438,7 @@
                   <c:v>2756</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2770</c:v>
+                  <c:v>2771</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>2784</c:v>
@@ -4450,7 +4450,7 @@
                   <c:v>2812</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2825</c:v>
+                  <c:v>2826</c:v>
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2839</c:v>
@@ -4471,13 +4471,13 @@
                   <c:v>2904</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2916</c:v>
+                  <c:v>2917</c:v>
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>2929</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2941</c:v>
+                  <c:v>2942</c:v>
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>2954</c:v>
@@ -4513,7 +4513,7 @@
                   <c:v>3069</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3080</c:v>
+                  <c:v>3079</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>3090</c:v>
@@ -4552,7 +4552,7 @@
                   <c:v>3198</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3208</c:v>
+                  <c:v>3207</c:v>
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>3216</c:v>
@@ -4564,7 +4564,7 @@
                   <c:v>3234</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3243</c:v>
+                  <c:v>3242</c:v>
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>3251</c:v>
@@ -4573,7 +4573,7 @@
                   <c:v>3259</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3268</c:v>
+                  <c:v>3267</c:v>
                 </c:pt>
                 <c:pt idx="179">
                   <c:v>3276</c:v>
@@ -4678,7 +4678,7 @@
                   <c:v>3485</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3490</c:v>
+                  <c:v>3489</c:v>
                 </c:pt>
                 <c:pt idx="214">
                   <c:v>3494</c:v>
@@ -4696,7 +4696,7 @@
                   <c:v>3512</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>3517</c:v>
+                  <c:v>3516</c:v>
                 </c:pt>
                 <c:pt idx="220">
                   <c:v>3521</c:v>
@@ -4729,7 +4729,7 @@
                   <c:v>3556</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>3560</c:v>
+                  <c:v>3559</c:v>
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>3563</c:v>
@@ -4846,7 +4846,7 @@
                   <c:v>3658</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>3660</c:v>
+                  <c:v>3659</c:v>
                 </c:pt>
                 <c:pt idx="270">
                   <c:v>3661</c:v>
@@ -4966,10 +4966,10 @@
                   <c:v>3709</c:v>
                 </c:pt>
                 <c:pt idx="309">
+                  <c:v>3709</c:v>
+                </c:pt>
+                <c:pt idx="310">
                   <c:v>3710</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>3711</c:v>
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>3711</c:v>
@@ -4981,10 +4981,10 @@
                   <c:v>3713</c:v>
                 </c:pt>
                 <c:pt idx="314">
+                  <c:v>3713</c:v>
+                </c:pt>
+                <c:pt idx="315">
                   <c:v>3714</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>3715</c:v>
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>3715</c:v>
@@ -4993,88 +4993,88 @@
                   <c:v>3716</c:v>
                 </c:pt>
                 <c:pt idx="318">
+                  <c:v>3716</c:v>
+                </c:pt>
+                <c:pt idx="319">
                   <c:v>3717</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>3718</c:v>
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>3718</c:v>
                 </c:pt>
                 <c:pt idx="321">
+                  <c:v>3718</c:v>
+                </c:pt>
+                <c:pt idx="322">
                   <c:v>3719</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>3720</c:v>
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>3720</c:v>
                 </c:pt>
                 <c:pt idx="324">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="325">
                   <c:v>3721</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>3722</c:v>
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>3722</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>3723</c:v>
+                  <c:v>3722</c:v>
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>3723</c:v>
                 </c:pt>
                 <c:pt idx="329">
+                  <c:v>3723</c:v>
+                </c:pt>
+                <c:pt idx="330">
                   <c:v>3724</c:v>
                 </c:pt>
-                <c:pt idx="330">
+                <c:pt idx="331">
+                  <c:v>3724</c:v>
+                </c:pt>
+                <c:pt idx="332">
                   <c:v>3725</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>3725</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>3726</c:v>
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>3726</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>3727</c:v>
+                  <c:v>3726</c:v>
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>3727</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>3728</c:v>
+                  <c:v>3727</c:v>
                 </c:pt>
                 <c:pt idx="337">
                   <c:v>3728</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>3729</c:v>
+                  <c:v>3728</c:v>
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>3729</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>3730</c:v>
+                  <c:v>3729</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>3730</c:v>
+                  <c:v>3729</c:v>
                 </c:pt>
                 <c:pt idx="342">
                   <c:v>3730</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>3731</c:v>
+                  <c:v>3730</c:v>
                 </c:pt>
                 <c:pt idx="344">
                   <c:v>3731</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>3732</c:v>
+                  <c:v>3731</c:v>
                 </c:pt>
                 <c:pt idx="346">
                   <c:v>3732</c:v>
@@ -5083,7 +5083,7 @@
                   <c:v>3732</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>3733</c:v>
+                  <c:v>3732</c:v>
                 </c:pt>
                 <c:pt idx="349">
                   <c:v>3733</c:v>
@@ -5128,7 +5128,7 @@
                   <c:v>3737</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>3737</c:v>
+                  <c:v>3738</c:v>
                 </c:pt>
                 <c:pt idx="364">
                   <c:v>3738</c:v>
@@ -5137,7 +5137,7 @@
                   <c:v>3738</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>3738</c:v>
+                  <c:v>3739</c:v>
                 </c:pt>
                 <c:pt idx="367">
                   <c:v>3739</c:v>
@@ -5149,7 +5149,7 @@
                   <c:v>3739</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>3739</c:v>
+                  <c:v>3740</c:v>
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>3740</c:v>
@@ -5161,7 +5161,7 @@
                   <c:v>3740</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>3740</c:v>
+                  <c:v>3741</c:v>
                 </c:pt>
                 <c:pt idx="375">
                   <c:v>3741</c:v>
@@ -5173,7 +5173,7 @@
                   <c:v>3741</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>3741</c:v>
+                  <c:v>3742</c:v>
                 </c:pt>
                 <c:pt idx="379">
                   <c:v>3742</c:v>
@@ -5236,7 +5236,7 @@
                   <c:v>3745</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>3746</c:v>
+                  <c:v>3745</c:v>
                 </c:pt>
                 <c:pt idx="400">
                   <c:v>3746</c:v>
@@ -5257,7 +5257,7 @@
                   <c:v>3746</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>3747</c:v>
+                  <c:v>3746</c:v>
                 </c:pt>
                 <c:pt idx="407">
                   <c:v>3747</c:v>
@@ -5278,10 +5278,10 @@
                   <c:v>3747</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>3748</c:v>
+                  <c:v>3747</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>3748</c:v>
+                  <c:v>3747</c:v>
                 </c:pt>
                 <c:pt idx="415">
                   <c:v>3748</c:v>
@@ -7695,11 +7695,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1524263488"/>
-        <c:axId val="1524264576"/>
+        <c:axId val="532350432"/>
+        <c:axId val="532352064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1524263488"/>
+        <c:axId val="532350432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7756,12 +7756,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1524264576"/>
+        <c:crossAx val="532352064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1524264576"/>
+        <c:axId val="532352064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7812,7 +7812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1524263488"/>
+        <c:crossAx val="532350432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9361,16 +9361,16 @@
       <selection activeCell="I292" sqref="I292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="6"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -9379,7 +9379,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -9392,7 +9392,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -9403,7 +9403,7 @@
       <c r="G3" s="5"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -9417,7 +9417,7 @@
       <c r="G4" s="5"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -9431,7 +9431,7 @@
       <c r="G5" s="5"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -9445,7 +9445,7 @@
       <c r="G6" s="5"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -9459,7 +9459,7 @@
       <c r="G7" s="5"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -9473,7 +9473,7 @@
       <c r="G8" s="5"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -9487,7 +9487,7 @@
       <c r="G9" s="5"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -9501,7 +9501,7 @@
       <c r="G10" s="5"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -9515,7 +9515,7 @@
       <c r="G11" s="5"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -9529,7 +9529,7 @@
       <c r="G12" s="5"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -9543,7 +9543,7 @@
       <c r="G13" s="5"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -9557,7 +9557,7 @@
       <c r="G14" s="5"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -9571,7 +9571,7 @@
       <c r="G15" s="5"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -9585,7 +9585,7 @@
       <c r="G16" s="5"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -9599,7 +9599,7 @@
       <c r="G17" s="5"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -9613,7 +9613,7 @@
       <c r="G18" s="5"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -9627,7 +9627,7 @@
       <c r="G19" s="5"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -9641,7 +9641,7 @@
       <c r="G20" s="5"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -9655,7 +9655,7 @@
       <c r="G21" s="5"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -9669,7 +9669,7 @@
       <c r="G22" s="5"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -9683,7 +9683,7 @@
       <c r="G23" s="5"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -9697,7 +9697,7 @@
       <c r="G24" s="5"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -9711,7 +9711,7 @@
       <c r="G25" s="5"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -9725,7 +9725,7 @@
       <c r="G26" s="5"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -9739,7 +9739,7 @@
       <c r="G27" s="5"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -9753,7 +9753,7 @@
       <c r="G28" s="5"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -9767,7 +9767,7 @@
       <c r="G29" s="5"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -9781,7 +9781,7 @@
       <c r="G30" s="5"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -9795,7 +9795,7 @@
       <c r="G31" s="5"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -9809,7 +9809,7 @@
       <c r="G32" s="5"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -9823,7 +9823,7 @@
       <c r="G33" s="5"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -9837,7 +9837,7 @@
       <c r="G34" s="5"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -9851,7 +9851,7 @@
       <c r="G35" s="5"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -9865,7 +9865,7 @@
       <c r="G36" s="5"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -9917,7 +9917,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -9930,7 +9930,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -10034,7 +10034,7 @@
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -10047,7 +10047,7 @@
       </c>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>50</v>
       </c>
@@ -10073,7 +10073,7 @@
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>53</v>
       </c>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>54</v>
       </c>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -10138,7 +10138,7 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -10164,7 +10164,7 @@
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>58</v>
       </c>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>59</v>
       </c>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>60</v>
       </c>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>61</v>
       </c>
@@ -10216,7 +10216,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>62</v>
       </c>
@@ -10229,7 +10229,7 @@
       </c>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>63</v>
       </c>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>64</v>
       </c>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>65</v>
       </c>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>67</v>
       </c>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>68</v>
       </c>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>69</v>
       </c>
@@ -10320,7 +10320,7 @@
       </c>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>70</v>
       </c>
@@ -10333,7 +10333,7 @@
       </c>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>71</v>
       </c>
@@ -10346,7 +10346,7 @@
       </c>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>72</v>
       </c>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>73</v>
       </c>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>74</v>
       </c>
@@ -10385,7 +10385,7 @@
       </c>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>75</v>
       </c>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>76</v>
       </c>
@@ -10411,7 +10411,7 @@
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>77</v>
       </c>
@@ -10424,7 +10424,7 @@
       </c>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>78</v>
       </c>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>79</v>
       </c>
@@ -10450,7 +10450,7 @@
       </c>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>80</v>
       </c>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>81</v>
       </c>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>82</v>
       </c>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>83</v>
       </c>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>84</v>
       </c>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>85</v>
       </c>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>86</v>
       </c>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>87</v>
       </c>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>88</v>
       </c>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>89</v>
       </c>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>90</v>
       </c>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>91</v>
       </c>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>92</v>
       </c>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>93</v>
       </c>
@@ -10632,7 +10632,7 @@
       </c>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>94</v>
       </c>
@@ -10645,7 +10645,7 @@
       </c>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>95</v>
       </c>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>96</v>
       </c>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>97</v>
       </c>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>98</v>
       </c>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>99</v>
       </c>
@@ -10710,7 +10710,7 @@
       </c>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>100</v>
       </c>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>101</v>
       </c>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>102</v>
       </c>
@@ -10749,7 +10749,7 @@
       </c>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>103</v>
       </c>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>104</v>
       </c>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>105</v>
       </c>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>106</v>
       </c>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>107</v>
       </c>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>108</v>
       </c>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>109</v>
       </c>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>110</v>
       </c>
@@ -10853,7 +10853,7 @@
       </c>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>111</v>
       </c>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>112</v>
       </c>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>113</v>
       </c>
@@ -10892,7 +10892,7 @@
       </c>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>114</v>
       </c>
@@ -10905,7 +10905,7 @@
       </c>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>115</v>
       </c>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>116</v>
       </c>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>117</v>
       </c>
@@ -10944,7 +10944,7 @@
       </c>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>118</v>
       </c>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>119</v>
       </c>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>120</v>
       </c>
@@ -10983,7 +10983,7 @@
       </c>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>121</v>
       </c>
@@ -10996,7 +10996,7 @@
       </c>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>122</v>
       </c>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>123</v>
       </c>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>124</v>
       </c>
@@ -11035,7 +11035,7 @@
       </c>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>125</v>
       </c>
@@ -11048,7 +11048,7 @@
       </c>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>126</v>
       </c>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>127</v>
       </c>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>128</v>
       </c>
@@ -11087,7 +11087,7 @@
       </c>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>129</v>
       </c>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>130</v>
       </c>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>131</v>
       </c>
@@ -11126,7 +11126,7 @@
       </c>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>132</v>
       </c>
@@ -11139,7 +11139,7 @@
       </c>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>133</v>
       </c>
@@ -11152,7 +11152,7 @@
       </c>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>134</v>
       </c>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>135</v>
       </c>
@@ -11178,7 +11178,7 @@
       </c>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>136</v>
       </c>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>137</v>
       </c>
@@ -11204,7 +11204,7 @@
       </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>138</v>
       </c>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>139</v>
       </c>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>140</v>
       </c>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>141</v>
       </c>
@@ -11256,7 +11256,7 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>142</v>
       </c>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>143</v>
       </c>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>144</v>
       </c>
@@ -11295,7 +11295,7 @@
       </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>145</v>
       </c>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>146</v>
       </c>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>147</v>
       </c>
@@ -11334,7 +11334,7 @@
       </c>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>148</v>
       </c>
@@ -11347,7 +11347,7 @@
       </c>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>149</v>
       </c>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>150</v>
       </c>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>151</v>
       </c>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>152</v>
       </c>
@@ -11399,7 +11399,7 @@
       </c>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>153</v>
       </c>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>154</v>
       </c>
@@ -11425,7 +11425,7 @@
       </c>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>155</v>
       </c>
@@ -11438,7 +11438,7 @@
       </c>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>156</v>
       </c>
@@ -11451,7 +11451,7 @@
       </c>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>157</v>
       </c>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>158</v>
       </c>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>159</v>
       </c>
@@ -11490,7 +11490,7 @@
       </c>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>160</v>
       </c>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>161</v>
       </c>
@@ -11516,7 +11516,7 @@
       </c>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>162</v>
       </c>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>163</v>
       </c>
@@ -11542,7 +11542,7 @@
       </c>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>164</v>
       </c>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>165</v>
       </c>
@@ -11568,7 +11568,7 @@
       </c>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>166</v>
       </c>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>167</v>
       </c>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>168</v>
       </c>
@@ -11607,7 +11607,7 @@
       </c>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>169</v>
       </c>
@@ -11620,7 +11620,7 @@
       </c>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>170</v>
       </c>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>171</v>
       </c>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>172</v>
       </c>
@@ -11659,7 +11659,7 @@
       </c>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>173</v>
       </c>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>174</v>
       </c>
@@ -11685,7 +11685,7 @@
       </c>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>175</v>
       </c>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>176</v>
       </c>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>177</v>
       </c>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>178</v>
       </c>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>179</v>
       </c>
@@ -11750,7 +11750,7 @@
       </c>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>180</v>
       </c>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>181</v>
       </c>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>182</v>
       </c>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>183</v>
       </c>
@@ -11802,7 +11802,7 @@
       </c>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>184</v>
       </c>
@@ -11815,7 +11815,7 @@
       </c>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>185</v>
       </c>
@@ -11828,7 +11828,7 @@
       </c>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>186</v>
       </c>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>187</v>
       </c>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>188</v>
       </c>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>189</v>
       </c>
@@ -11880,7 +11880,7 @@
       </c>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>190</v>
       </c>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>191</v>
       </c>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>192</v>
       </c>
@@ -11919,7 +11919,7 @@
       </c>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>193</v>
       </c>
@@ -11932,7 +11932,7 @@
       </c>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>194</v>
       </c>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>195</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>3615</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>3639</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>3657</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>3664</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>3664</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>3664</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -13236,7 +13236,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>3754</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -13992,15 +13992,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F483"/>
+  <dimension ref="A1:F492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -14039,12 +14039,12 @@
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>18.126621613236679</v>
+        <v>18.130148575589978</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -14056,7 +14056,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>7</v>
       </c>
@@ -14135,12 +14135,12 @@
         <v>732</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -14152,7 +14152,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>11</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>12</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>13</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>14</v>
       </c>
@@ -14230,7 +14230,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>15</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>16</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>17</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>18</v>
       </c>
@@ -14271,10 +14271,10 @@
         <v>936</v>
       </c>
       <c r="F20">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>19</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>20</v>
       </c>
@@ -14293,10 +14293,10 @@
         <v>942</v>
       </c>
       <c r="F22">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>21</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>22</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>23</v>
       </c>
@@ -14326,10 +14326,10 @@
         <v>942</v>
       </c>
       <c r="F25">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>24</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>25</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>26</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>27</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>28</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>29</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>30</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>31</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>32</v>
       </c>
@@ -14425,10 +14425,10 @@
         <v>1074</v>
       </c>
       <c r="F34">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>33</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>34</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>35</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>36</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>37</v>
       </c>
@@ -14480,10 +14480,10 @@
         <v>1199</v>
       </c>
       <c r="F39">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>38</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>39</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>40</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>41</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>42</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>43</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>44</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>45</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>46</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>47</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>48</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>49</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>50</v>
       </c>
@@ -14623,10 +14623,10 @@
         <v>1519</v>
       </c>
       <c r="F52">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>51</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>52</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>53</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>54</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>55</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>56</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>57</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>58</v>
       </c>
@@ -14711,10 +14711,10 @@
         <v>1553</v>
       </c>
       <c r="F60">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>59</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>60</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>61</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>62</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>63</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>64</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>65</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>66</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>67</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>68</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>69</v>
       </c>
@@ -14832,10 +14832,10 @@
         <v>1731</v>
       </c>
       <c r="F71">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>70</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>71</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>72</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>73</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>74</v>
       </c>
@@ -14887,10 +14887,10 @@
         <v>1760</v>
       </c>
       <c r="F76">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>75</v>
       </c>
@@ -14898,10 +14898,10 @@
         <v>1878</v>
       </c>
       <c r="F77">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>76</v>
       </c>
@@ -14909,10 +14909,10 @@
         <v>1878</v>
       </c>
       <c r="F78">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>77</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>78</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>79</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>80</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>81</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>82</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>83</v>
       </c>
@@ -14986,10 +14986,10 @@
         <v>1971</v>
       </c>
       <c r="F85">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>84</v>
       </c>
@@ -14997,10 +14997,10 @@
         <v>2047</v>
       </c>
       <c r="F86">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>85</v>
       </c>
@@ -15008,10 +15008,10 @@
         <v>2047</v>
       </c>
       <c r="F87">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>86</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>87</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>88</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>89</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>90</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>91</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>92</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>93</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>94</v>
       </c>
@@ -15107,10 +15107,10 @@
         <v>2155</v>
       </c>
       <c r="F96">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>95</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>96</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>97</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>98</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>99</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>100</v>
       </c>
@@ -15173,10 +15173,10 @@
         <v>2164</v>
       </c>
       <c r="F102">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>101</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>102</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>103</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>104</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>105</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>106</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>107</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>108</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>109</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>110</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>111</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>112</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>113</v>
       </c>
@@ -15316,10 +15316,10 @@
         <v>2416</v>
       </c>
       <c r="F115">
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>114</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>115</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>116</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>117</v>
       </c>
@@ -15360,10 +15360,10 @@
         <v>2597</v>
       </c>
       <c r="F119">
-        <v>2514</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>118</v>
       </c>
@@ -15371,10 +15371,10 @@
         <v>2597</v>
       </c>
       <c r="F120">
-        <v>2530</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>119</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>120</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>121</v>
       </c>
@@ -15404,10 +15404,10 @@
         <v>2630</v>
       </c>
       <c r="F123">
-        <v>2577</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>122</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>123</v>
       </c>
@@ -15426,10 +15426,10 @@
         <v>2706</v>
       </c>
       <c r="F125">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>124</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>125</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>126</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D129">
         <v>127</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D130">
         <v>128</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D131">
         <v>129</v>
       </c>
@@ -15492,10 +15492,10 @@
         <v>2769</v>
       </c>
       <c r="F131">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D132">
         <v>130</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D133">
         <v>131</v>
       </c>
@@ -15514,10 +15514,10 @@
         <v>2775</v>
       </c>
       <c r="F133">
-        <v>2727</v>
-      </c>
-    </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D134">
         <v>132</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D135">
         <v>133</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D136">
         <v>134</v>
       </c>
@@ -15547,10 +15547,10 @@
         <v>2793</v>
       </c>
       <c r="F136">
-        <v>2770</v>
-      </c>
-    </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D137">
         <v>135</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D138">
         <v>136</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D139">
         <v>137</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D140">
         <v>138</v>
       </c>
@@ -15591,10 +15591,10 @@
         <v>2806</v>
       </c>
       <c r="F140">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D141">
         <v>139</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D142">
         <v>140</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D143">
         <v>141</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D144">
         <v>142</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D145">
         <v>143</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D146">
         <v>144</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D147">
         <v>145</v>
       </c>
@@ -15668,10 +15668,10 @@
         <v>2871</v>
       </c>
       <c r="F147">
-        <v>2916</v>
-      </c>
-    </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D148">
         <v>146</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D149">
         <v>147</v>
       </c>
@@ -15690,10 +15690,10 @@
         <v>2873</v>
       </c>
       <c r="F149">
-        <v>2941</v>
-      </c>
-    </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D150">
         <v>148</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D151">
         <v>149</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D152">
         <v>150</v>
       </c>
@@ -15726,7 +15726,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D153">
         <v>151</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D154">
         <v>152</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D155">
         <v>153</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D156">
         <v>154</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D157">
         <v>155</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D158">
         <v>156</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D159">
         <v>157</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D160">
         <v>158</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161">
         <v>159</v>
       </c>
@@ -15822,10 +15822,10 @@
         <v>2975</v>
       </c>
       <c r="F161">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162">
         <v>160</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163">
         <v>161</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164">
         <v>162</v>
       </c>
@@ -15858,7 +15858,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165">
         <v>163</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D166">
         <v>164</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D167">
         <v>165</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D168">
         <v>166</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D169">
         <v>167</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D170">
         <v>168</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D171">
         <v>169</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D172">
         <v>170</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D173">
         <v>171</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>3198</v>
       </c>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D174">
         <v>172</v>
       </c>
@@ -15965,10 +15965,10 @@
         <v>3108</v>
       </c>
       <c r="F174">
-        <v>3208</v>
-      </c>
-    </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D175">
         <v>173</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D176">
         <v>174</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D177">
         <v>175</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D178">
         <v>176</v>
       </c>
@@ -16009,10 +16009,10 @@
         <v>3120</v>
       </c>
       <c r="F178">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D179">
         <v>177</v>
       </c>
@@ -16023,7 +16023,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D180">
         <v>178</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D181">
         <v>179</v>
       </c>
@@ -16042,10 +16042,10 @@
         <v>3155</v>
       </c>
       <c r="F181">
-        <v>3268</v>
-      </c>
-    </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D182">
         <v>180</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D183">
         <v>181</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D184">
         <v>182</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D185">
         <v>183</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D186">
         <v>184</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D187">
         <v>185</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D188">
         <v>186</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D189">
         <v>187</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D190">
         <v>188</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D191">
         <v>189</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D192">
         <v>190</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D193">
         <v>191</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D194">
         <v>192</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D195">
         <v>193</v>
       </c>
@@ -16199,7 +16199,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D196">
         <v>194</v>
       </c>
@@ -16210,7 +16210,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D197">
         <v>195</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D198">
         <v>196</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D199">
         <v>197</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D200">
         <v>198</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D201">
         <v>199</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D202">
         <v>200</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D203">
         <v>201</v>
       </c>
@@ -16287,7 +16287,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D204">
         <v>202</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D205">
         <v>203</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D206">
         <v>204</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D207">
         <v>205</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D208">
         <v>206</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D209">
         <v>207</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D210">
         <v>208</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D211">
         <v>209</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D212">
         <v>210</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D213">
         <v>211</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D214">
         <v>212</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D215">
         <v>213</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D216">
         <v>214</v>
       </c>
@@ -16427,10 +16427,10 @@
         <v>3466</v>
       </c>
       <c r="F216">
-        <v>3490</v>
-      </c>
-    </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D217">
         <v>215</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D218">
         <v>216</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D219">
         <v>217</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D220">
         <v>218</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D221">
         <v>219</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D222">
         <v>220</v>
       </c>
@@ -16493,10 +16493,10 @@
         <v>3466</v>
       </c>
       <c r="F222">
-        <v>3517</v>
-      </c>
-    </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D223">
         <v>221</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D224">
         <v>222</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D225">
         <v>223</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D226">
         <v>224</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D227">
         <v>225</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D228">
         <v>226</v>
       </c>
@@ -16562,7 +16562,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D229">
         <v>227</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D230">
         <v>228</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D231">
         <v>229</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D232">
         <v>230</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D233">
         <v>231</v>
       </c>
@@ -16614,10 +16614,10 @@
         <v>3569</v>
       </c>
       <c r="F233">
-        <v>3560</v>
-      </c>
-    </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D234">
         <v>232</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D235">
         <v>233</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D236">
         <v>234</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D237">
         <v>235</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D238">
         <v>236</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D239">
         <v>237</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D240">
         <v>238</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D241">
         <v>239</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D242">
         <v>240</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D243">
         <v>241</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D244">
         <v>242</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D245">
         <v>243</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D246">
         <v>244</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D247">
         <v>245</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D248">
         <v>246</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D249">
         <v>247</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D250">
         <v>248</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>3612</v>
       </c>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D251">
         <v>249</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D252">
         <v>250</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D253">
         <v>251</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D254">
         <v>252</v>
       </c>
@@ -16848,7 +16848,7 @@
         <v>3622</v>
       </c>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D255">
         <v>253</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D256">
         <v>254</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>3627</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D257">
         <v>255</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>3629</v>
       </c>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D258">
         <v>256</v>
       </c>
@@ -16892,7 +16892,7 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D259">
         <v>257</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D260">
         <v>258</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D261">
         <v>259</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D262">
         <v>260</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D263">
         <v>261</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D264">
         <v>262</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D265">
         <v>263</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D266">
         <v>264</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D267">
         <v>265</v>
       </c>
@@ -16991,7 +16991,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D268">
         <v>266</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D269">
         <v>267</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D270">
         <v>268</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>3656</v>
       </c>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D271">
         <v>269</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D272">
         <v>270</v>
       </c>
@@ -17043,10 +17043,10 @@
         <v>3641</v>
       </c>
       <c r="F272">
-        <v>3660</v>
-      </c>
-    </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D273">
         <v>271</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>3661</v>
       </c>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D274">
         <v>272</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D275">
         <v>273</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D276">
         <v>274</v>
       </c>
@@ -17090,7 +17090,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D277">
         <v>275</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>3668</v>
       </c>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D278">
         <v>276</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D279">
         <v>277</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D280">
         <v>278</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D281">
         <v>279</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D282">
         <v>280</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D283">
         <v>281</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D284">
         <v>282</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>3679</v>
       </c>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D285">
         <v>283</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D286">
         <v>284</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D287">
         <v>285</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D288">
         <v>286</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289">
         <v>287</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>3685</v>
       </c>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D290">
         <v>288</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D291">
         <v>289</v>
       </c>
@@ -17255,7 +17255,7 @@
         <v>3688</v>
       </c>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D292">
         <v>290</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D293">
         <v>291</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D294">
         <v>292</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D295">
         <v>293</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D296">
         <v>294</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D297">
         <v>295</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D298">
         <v>296</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D299">
         <v>297</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D300">
         <v>298</v>
       </c>
@@ -17354,7 +17354,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D301">
         <v>299</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D302">
         <v>300</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D303">
         <v>301</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D304">
         <v>302</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D305">
         <v>303</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D306">
         <v>304</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D307">
         <v>305</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D308">
         <v>306</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D309">
         <v>307</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>3707</v>
       </c>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D310">
         <v>308</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D311">
         <v>309</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D312">
         <v>310</v>
       </c>
@@ -17483,10 +17483,10 @@
         <v>3750</v>
       </c>
       <c r="F312">
-        <v>3710</v>
-      </c>
-    </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D313">
         <v>311</v>
       </c>
@@ -17494,10 +17494,10 @@
         <v>3744</v>
       </c>
       <c r="F313">
-        <v>3711</v>
-      </c>
-    </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D314">
         <v>312</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D315">
         <v>313</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D316">
         <v>314</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D317">
         <v>315</v>
       </c>
@@ -17538,10 +17538,10 @@
         <v>3751</v>
       </c>
       <c r="F317">
-        <v>3714</v>
-      </c>
-    </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D318">
         <v>316</v>
       </c>
@@ -17549,10 +17549,10 @@
         <v>3751</v>
       </c>
       <c r="F318">
-        <v>3715</v>
-      </c>
-    </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D319">
         <v>317</v>
       </c>
@@ -17563,7 +17563,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D320">
         <v>318</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>3716</v>
       </c>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D321">
         <v>319</v>
       </c>
@@ -17582,10 +17582,10 @@
         <v>3760</v>
       </c>
       <c r="F321">
-        <v>3717</v>
-      </c>
-    </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D322">
         <v>320</v>
       </c>
@@ -17593,10 +17593,10 @@
         <v>3760</v>
       </c>
       <c r="F322">
-        <v>3718</v>
-      </c>
-    </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D323">
         <v>321</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D324">
         <v>322</v>
       </c>
@@ -17615,10 +17615,10 @@
         <v>3770</v>
       </c>
       <c r="F324">
-        <v>3719</v>
-      </c>
-    </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D325">
         <v>323</v>
       </c>
@@ -17626,10 +17626,10 @@
         <v>3770</v>
       </c>
       <c r="F325">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D326">
         <v>324</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D327">
         <v>325</v>
       </c>
@@ -17648,10 +17648,10 @@
         <v>3784</v>
       </c>
       <c r="F327">
-        <v>3721</v>
-      </c>
-    </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D328">
         <v>326</v>
       </c>
@@ -17659,10 +17659,10 @@
         <v>3783</v>
       </c>
       <c r="F328">
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D329">
         <v>327</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D330">
         <v>328</v>
       </c>
@@ -17681,10 +17681,10 @@
         <v>3788</v>
       </c>
       <c r="F330">
-        <v>3723</v>
-      </c>
-    </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D331">
         <v>329</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D332">
         <v>330</v>
       </c>
@@ -17703,10 +17703,10 @@
         <v>3787</v>
       </c>
       <c r="F332">
-        <v>3724</v>
-      </c>
-    </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D333">
         <v>331</v>
       </c>
@@ -17714,10 +17714,10 @@
         <v>3787</v>
       </c>
       <c r="F333">
-        <v>3725</v>
-      </c>
-    </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D334">
         <v>332</v>
       </c>
@@ -17725,10 +17725,10 @@
         <v>3792</v>
       </c>
       <c r="F334">
-        <v>3725</v>
-      </c>
-    </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D335">
         <v>333</v>
       </c>
@@ -17736,10 +17736,10 @@
         <v>3786</v>
       </c>
       <c r="F335">
-        <v>3726</v>
-      </c>
-    </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D336">
         <v>334</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D337">
         <v>335</v>
       </c>
@@ -17758,10 +17758,10 @@
         <v>3785</v>
       </c>
       <c r="F337">
-        <v>3727</v>
-      </c>
-    </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D338">
         <v>336</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D339">
         <v>337</v>
       </c>
@@ -17780,10 +17780,10 @@
         <v>3781</v>
       </c>
       <c r="F339">
-        <v>3728</v>
-      </c>
-    </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D340">
         <v>338</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D341">
         <v>339</v>
       </c>
@@ -17802,10 +17802,10 @@
         <v>3786</v>
       </c>
       <c r="F341">
-        <v>3729</v>
-      </c>
-    </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D342">
         <v>340</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D343">
         <v>341</v>
       </c>
@@ -17824,10 +17824,10 @@
         <v>3784</v>
       </c>
       <c r="F343">
-        <v>3730</v>
-      </c>
-    </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D344">
         <v>342</v>
       </c>
@@ -17835,10 +17835,10 @@
         <v>3792</v>
       </c>
       <c r="F344">
-        <v>3730</v>
-      </c>
-    </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D345">
         <v>343</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D346">
         <v>344</v>
       </c>
@@ -17857,10 +17857,10 @@
         <v>3795</v>
       </c>
       <c r="F346">
-        <v>3731</v>
-      </c>
-    </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D347">
         <v>345</v>
       </c>
@@ -17871,7 +17871,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D348">
         <v>346</v>
       </c>
@@ -17879,10 +17879,10 @@
         <v>3791</v>
       </c>
       <c r="F348">
-        <v>3732</v>
-      </c>
-    </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D349">
         <v>347</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D350">
         <v>348</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D351">
         <v>349</v>
       </c>
@@ -17912,10 +17912,10 @@
         <v>3792</v>
       </c>
       <c r="F351">
-        <v>3733</v>
-      </c>
-    </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D352">
         <v>350</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D353">
         <v>351</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D354">
         <v>352</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>3734</v>
       </c>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D355">
         <v>353</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>3734</v>
       </c>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D356">
         <v>354</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>3734</v>
       </c>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D357">
         <v>355</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D358">
         <v>356</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D359">
         <v>357</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D360">
         <v>358</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D361">
         <v>359</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D362">
         <v>360</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D363">
         <v>361</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D364">
         <v>362</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D365">
         <v>363</v>
       </c>
@@ -18069,15 +18069,15 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D366">
         <v>364</v>
       </c>
       <c r="F366">
-        <v>3737</v>
-      </c>
-    </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="367" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D367">
         <v>365</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D368">
         <v>366</v>
       </c>
@@ -18093,15 +18093,15 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D369">
         <v>367</v>
       </c>
       <c r="F369">
-        <v>3738</v>
-      </c>
-    </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="370" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D370">
         <v>368</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D371">
         <v>369</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D372">
         <v>370</v>
       </c>
@@ -18125,15 +18125,15 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D373">
         <v>371</v>
       </c>
       <c r="F373">
-        <v>3739</v>
-      </c>
-    </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="374" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D374">
         <v>372</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D375">
         <v>373</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D376">
         <v>374</v>
       </c>
@@ -18157,15 +18157,15 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D377">
         <v>375</v>
       </c>
       <c r="F377">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="378" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D378">
         <v>376</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D379">
         <v>377</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D380">
         <v>378</v>
       </c>
@@ -18189,15 +18189,15 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D381">
         <v>379</v>
       </c>
       <c r="F381">
-        <v>3741</v>
-      </c>
-    </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="382" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D382">
         <v>380</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D383">
         <v>381</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D384">
         <v>382</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D385">
         <v>383</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D386">
         <v>384</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D387">
         <v>385</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D388">
         <v>386</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D389">
         <v>387</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D390">
         <v>388</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D391">
         <v>389</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D392">
         <v>390</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D393">
         <v>391</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D394">
         <v>392</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D395">
         <v>393</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D396">
         <v>394</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D397">
         <v>395</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D398">
         <v>396</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D399">
         <v>397</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D400">
         <v>398</v>
       </c>
@@ -18349,7 +18349,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D401">
         <v>399</v>
       </c>
@@ -18357,15 +18357,15 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D402">
         <v>400</v>
       </c>
       <c r="F402">
-        <v>3746</v>
-      </c>
-    </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="403" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D403">
         <v>401</v>
       </c>
@@ -18373,7 +18373,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D404">
         <v>402</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="405" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D405">
         <v>403</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D406">
         <v>404</v>
       </c>
@@ -18397,7 +18397,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D407">
         <v>405</v>
       </c>
@@ -18405,7 +18405,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D408">
         <v>406</v>
       </c>
@@ -18413,15 +18413,15 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="409" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D409">
         <v>407</v>
       </c>
       <c r="F409">
-        <v>3747</v>
-      </c>
-    </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="410" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D410">
         <v>408</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="411" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D411">
         <v>409</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="412" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D412">
         <v>410</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="413" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D413">
         <v>411</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="414" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D414">
         <v>412</v>
       </c>
@@ -18461,7 +18461,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="415" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D415">
         <v>413</v>
       </c>
@@ -18469,23 +18469,23 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="416" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D416">
         <v>414</v>
       </c>
       <c r="F416">
-        <v>3748</v>
-      </c>
-    </row>
-    <row r="417" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="417" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D417">
         <v>415</v>
       </c>
       <c r="F417">
-        <v>3748</v>
-      </c>
-    </row>
-    <row r="418" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="418" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D418">
         <v>416</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="419" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D419">
         <v>417</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="420" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D420">
         <v>418</v>
       </c>
@@ -18509,7 +18509,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="421" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D421">
         <v>419</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="422" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D422">
         <v>420</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="423" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D423">
         <v>421</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="424" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D424">
         <v>422</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="425" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D425">
         <v>423</v>
       </c>
@@ -18549,23 +18549,23 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="426" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D426">
         <v>424</v>
       </c>
       <c r="F426">
-        <v>3749</v>
-      </c>
-    </row>
-    <row r="427" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="427" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D427">
         <v>425</v>
       </c>
       <c r="F427">
-        <v>3749</v>
-      </c>
-    </row>
-    <row r="428" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="428" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D428">
         <v>426</v>
       </c>
@@ -18573,7 +18573,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="429" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D429">
         <v>427</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="430" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D430">
         <v>428</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="431" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D431">
         <v>429</v>
       </c>
@@ -18597,7 +18597,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="432" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D432">
         <v>430</v>
       </c>
@@ -18605,7 +18605,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="433" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D433">
         <v>431</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="434" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D434">
         <v>432</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="435" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D435">
         <v>433</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="436" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D436">
         <v>434</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="437" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D437">
         <v>435</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="438" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D438">
         <v>436</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="439" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D439">
         <v>437</v>
       </c>
@@ -18661,15 +18661,15 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="440" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D440">
         <v>438</v>
       </c>
       <c r="F440">
-        <v>3749</v>
-      </c>
-    </row>
-    <row r="441" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="441" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D441">
         <v>439</v>
       </c>
@@ -18677,7 +18677,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="442" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D442">
         <v>440</v>
       </c>
@@ -18685,7 +18685,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="443" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D443">
         <v>441</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="444" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D444">
         <v>442</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="445" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D445">
         <v>443</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="446" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D446">
         <v>444</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="447" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D447">
         <v>445</v>
       </c>
@@ -18725,7 +18725,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="448" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D448">
         <v>446</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="449" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D449">
         <v>447</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="450" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D450">
         <v>448</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="451" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D451">
         <v>449</v>
       </c>
@@ -18757,7 +18757,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="452" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D452">
         <v>450</v>
       </c>
@@ -18765,7 +18765,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="453" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D453">
         <v>451</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="454" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D454">
         <v>452</v>
       </c>
@@ -18781,7 +18781,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="455" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D455">
         <v>453</v>
       </c>
@@ -18789,47 +18789,47 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="456" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D456">
         <v>454</v>
       </c>
       <c r="F456">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="457" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="457" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D457">
         <v>455</v>
       </c>
       <c r="F457">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="458" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="458" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D458">
         <v>456</v>
       </c>
       <c r="F458">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="459" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="459" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D459">
         <v>457</v>
       </c>
       <c r="F459">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="460" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="460" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D460">
         <v>458</v>
       </c>
       <c r="F460">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="461" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="461" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D461">
         <v>459</v>
       </c>
@@ -18837,7 +18837,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="462" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D462">
         <v>460</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="463" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D463">
         <v>461</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="464" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D464">
         <v>462</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="465" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D465">
         <v>463</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="466" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D466">
         <v>464</v>
       </c>
@@ -18877,7 +18877,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="467" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D467">
         <v>465</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="468" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D468">
         <v>466</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="469" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D469">
         <v>467</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="470" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D470">
         <v>468</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="471" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D471">
         <v>469</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="472" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D472">
         <v>470</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="473" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D473">
         <v>471</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="474" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D474">
         <v>472</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="475" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D475">
         <v>473</v>
       </c>
@@ -18949,7 +18949,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="476" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D476">
         <v>474</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="477" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D477">
         <v>475</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="478" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D478">
         <v>476</v>
       </c>
@@ -18973,7 +18973,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="479" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D479">
         <v>477</v>
       </c>
@@ -18981,15 +18981,15 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="480" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D480">
         <v>478</v>
       </c>
       <c r="F480">
-        <v>3751</v>
-      </c>
-    </row>
-    <row r="481" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="481" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D481">
         <v>479</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>3752</v>
       </c>
     </row>
-    <row r="482" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D482">
         <v>480</v>
       </c>
@@ -19005,11 +19005,83 @@
         <v>3752</v>
       </c>
     </row>
-    <row r="483" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D483">
         <v>481</v>
       </c>
       <c r="F483">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="484" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D484">
+        <v>482</v>
+      </c>
+      <c r="F484">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="485" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D485">
+        <v>483</v>
+      </c>
+      <c r="F485">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="486" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D486">
+        <v>484</v>
+      </c>
+      <c r="F486">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="487" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D487">
+        <v>485</v>
+      </c>
+      <c r="F487">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="488" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D488">
+        <v>486</v>
+      </c>
+      <c r="F488">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="489" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D489">
+        <v>487</v>
+      </c>
+      <c r="F489">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="490" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D490">
+        <v>488</v>
+      </c>
+      <c r="F490">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="491" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D491">
+        <v>489</v>
+      </c>
+      <c r="F491">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="492" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D492">
+        <v>490</v>
+      </c>
+      <c r="F492">
         <v>3752</v>
       </c>
     </row>
